--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>K=1</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>K=5</t>
+  </si>
+  <si>
+    <t>NTI-TA</t>
+  </si>
+  <si>
+    <t>NT-TA</t>
+  </si>
+  <si>
+    <t>PT</t>
   </si>
 </sst>
 </file>
@@ -337,11 +346,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1289103472"/>
-        <c:axId val="1289104560"/>
+        <c:axId val="822968208"/>
+        <c:axId val="822972016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1289103472"/>
+        <c:axId val="822968208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,7 +393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1289104560"/>
+        <c:crossAx val="822972016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -392,7 +401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1289104560"/>
+        <c:axId val="822972016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1289103472"/>
+        <c:crossAx val="822968208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1381,7 +1390,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,6 +1428,15 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
@@ -1438,6 +1456,9 @@
       </c>
       <c r="C4" s="1">
         <v>23568.911</v>
+      </c>
+      <c r="F4">
+        <v>9887</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1457,6 +1478,9 @@
       <c r="C5" s="1">
         <v>20369.588</v>
       </c>
+      <c r="F5">
+        <v>8292</v>
+      </c>
       <c r="I5">
         <v>4</v>
       </c>
@@ -1474,6 +1498,9 @@
       </c>
       <c r="C6" s="1">
         <v>14997.066999999999</v>
+      </c>
+      <c r="F6">
+        <v>6654</v>
       </c>
       <c r="I6">
         <v>5</v>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>K=1</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>PT</t>
+  </si>
+  <si>
+    <t>PT-TA</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BTI</t>
+  </si>
+  <si>
+    <t>BTIV</t>
   </si>
 </sst>
 </file>
@@ -346,11 +361,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="822968208"/>
-        <c:axId val="822972016"/>
+        <c:axId val="1194321584"/>
+        <c:axId val="1194307440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="822968208"/>
+        <c:axId val="1194321584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,7 +408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="822972016"/>
+        <c:crossAx val="1194307440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -401,7 +416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="822972016"/>
+        <c:axId val="1194307440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="822968208"/>
+        <c:crossAx val="1194321584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,26 +1414,26 @@
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1437,17 +1452,29 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1460,15 +1487,21 @@
       <c r="F4">
         <v>9887</v>
       </c>
-      <c r="I4">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>82</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <v>28925</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1481,15 +1514,15 @@
       <c r="F5">
         <v>8292</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="1">
         <v>25540</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1502,15 +1535,15 @@
       <c r="F6">
         <v>6654</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
         <v>21172</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1520,15 +1553,15 @@
       <c r="C7" s="1">
         <v>10291.486000000001</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7" s="1">
         <v>17623</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1538,13 +1571,13 @@
       <c r="C8" s="1">
         <v>8085.78</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="1">
         <v>15629</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>K=1</t>
   </si>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,13 +100,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,11 +378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1194321584"/>
-        <c:axId val="1194307440"/>
+        <c:axId val="-1924608144"/>
+        <c:axId val="-1924607056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1194321584"/>
+        <c:axId val="-1924608144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194307440"/>
+        <c:crossAx val="-1924607056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -416,7 +433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1194307440"/>
+        <c:axId val="-1924607056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194321584"/>
+        <c:crossAx val="-1924608144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1402,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M3" sqref="M3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,12 +1431,12 @@
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1433,64 +1450,89 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>28070.876</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>23568.911</v>
       </c>
-      <c r="F4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <v>9887</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
         <v>82</v>
       </c>
       <c r="L4">
@@ -1501,19 +1543,25 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>25785.041000000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>20369.588</v>
       </c>
-      <c r="F5">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>8292</v>
       </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="L5">
         <v>4</v>
       </c>
@@ -1522,19 +1570,25 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>21253.0137</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>14997.066999999999</v>
       </c>
-      <c r="F6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>6654</v>
       </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="L6">
         <v>5</v>
       </c>
@@ -1543,16 +1597,23 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>17968.095000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>10291.486000000001</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="L7">
         <v>6</v>
       </c>
@@ -1561,16 +1622,23 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>15344.848</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>8085.78</v>
       </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="L8">
         <v>7</v>
       </c>
